--- a/biology/Médecine/Les_Patients_(film)/Les_Patients_(film).xlsx
+++ b/biology/Médecine/Les_Patients_(film)/Les_Patients_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Patients est un documentaire français réalisé par Claire Simon et sorti en 1990.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dernier mois de travail de Jean-Marie Bouvier, médecin généraliste en province, lors de ses visites à domicile et des consultations dans son cabinet, avant son départ à la retraite.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Les Patients
 Réalisation :  Claire Simon
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dr Jean-Marie Bouvier</t>
         </is>
@@ -612,9 +630,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cinéma du réel 1990 : prix de la mission du patrimoine[1]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cinéma du réel 1990 : prix de la mission du patrimoine</t>
         </is>
       </c>
     </row>
